--- a/newPy/nmap/scan_results.xlsx
+++ b/newPy/nmap/scan_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,75 +453,75 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>192.168.95.1</t>
+          <t>193.178.172.30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[53, 80, 2000]</t>
+          <t>[22]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{53: {'name': 'domain', 'product': '', 'version': ''}, 80: {'name': 'http', 'product': '', 'version': ''}, 2000: {'name': 'cisco-sccp', 'product': '', 'version': ''}}</t>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>192.168.95.2</t>
+          <t>193.178.172.31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[53, 2000]</t>
+          <t>[22]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{53: {'name': 'domain', 'product': '', 'version': ''}, 2000: {'name': 'cisco-sccp', 'product': '', 'version': ''}}</t>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>192.168.95.3</t>
+          <t>193.178.172.32</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[22, 443, 1723, 2000]</t>
+          <t>[22]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}, 443: {'name': 'https', 'product': '', 'version': ''}, 1723: {'name': 'pptp', 'product': '', 'version': ''}, 2000: {'name': 'cisco-sccp', 'product': '', 'version': ''}}</t>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>192.168.95.4</t>
+          <t>193.178.172.33</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[53, 2000]</t>
+          <t>[22, 139, 1900]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{53: {'name': 'domain', 'product': '', 'version': ''}, 2000: {'name': 'cisco-sccp', 'product': '', 'version': ''}}</t>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}, 139: {'name': 'netbios-ssn', 'product': '', 'version': ''}, 1900: {'name': 'upnp', 'product': '', 'version': ''}}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>192.168.95.5</t>
+          <t>193.178.172.34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -538,7 +538,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>192.168.95.6</t>
+          <t>193.178.172.35</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -555,68 +555,255 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>192.168.95.7</t>
+          <t>193.178.172.36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[80, 443]</t>
+          <t>[22, 139, 1900]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{80: {'name': 'http', 'product': '', 'version': ''}, 443: {'name': 'https', 'product': '', 'version': ''}}</t>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}, 139: {'name': 'netbios-ssn', 'product': '', 'version': ''}, 1900: {'name': 'upnp', 'product': '', 'version': ''}}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>192.168.95.8</t>
+          <t>193.178.172.37</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[22, 139, 443, 1900]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}, 139: {'name': 'netbios-ssn', 'product': '', 'version': ''}, 443: {'name': 'https', 'product': '', 'version': ''}, 1900: {'name': 'upnp', 'product': '', 'version': ''}}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>192.168.95.9</t>
+          <t>193.178.172.38</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[22, 139, 1900]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}, 139: {'name': 'netbios-ssn', 'product': '', 'version': ''}, 1900: {'name': 'upnp', 'product': '', 'version': ''}}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>192.168.95.10</t>
+          <t>193.178.172.39</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[22, 111, 3128]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}, 111: {'name': 'rpcbind', 'product': '', 'version': ''}, 3128: {'name': 'squid-http', 'product': '', 'version': ''}}</t>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>193.178.172.40</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>193.178.172.41</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[22, 139, 1900]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}, 139: {'name': 'netbios-ssn', 'product': '', 'version': ''}, 1900: {'name': 'upnp', 'product': '', 'version': ''}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>193.178.172.42</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[21, 22, 25, 53, 80, 110, 143, 443, 465, 587, 993, 995]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{21: {'name': 'ftp', 'product': '', 'version': ''}, 22: {'name': 'ssh', 'product': '', 'version': ''}, 25: {'name': 'smtp', 'product': '', 'version': ''}, 53: {'name': 'domain', 'product': '', 'version': ''}, 80: {'name': 'http', 'product': '', 'version': ''}, 110: {'name': 'pop3', 'product': '', 'version': ''}, 143: {'name': 'imap', 'product': '', 'version': ''}, 443: {'name': 'https', 'product': '', 'version': ''}, 465: {'name': 'smtps', 'product': '', 'version': ''}, 587: {'name': 'submission', 'product': '', 'version': ''}, 993: {'name': 'imaps', 'product': '', 'version': ''}, 995: {'name': 'pop3s', 'product': '', 'version': ''}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>193.178.172.43</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>193.178.172.44</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[22, 139, 1900]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}, 139: {'name': 'netbios-ssn', 'product': '', 'version': ''}, 1900: {'name': 'upnp', 'product': '', 'version': ''}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>193.178.172.45</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>193.178.172.46</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>193.178.172.47</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>193.178.172.48</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>193.178.172.49</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[22, 139, 443, 1900]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}, 139: {'name': 'netbios-ssn', 'product': '', 'version': ''}, 443: {'name': 'https', 'product': '', 'version': ''}, 1900: {'name': 'upnp', 'product': '', 'version': ''}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>193.178.172.50</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>
